--- a/заказы/филиалы и опт/2024/11,24/25,11,24 Ост СЫР филиалы/дв 25,11,24 днрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/11,24/25,11,24 Ост СЫР филиалы/дв 25,11,24 днрсч ост сыр от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,11,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\11,24\25,11,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A33C4-70DA-4665-B665-D86C5D8EB7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE2D48D-67A6-47E3-BE67-4A20529AA46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1824.3191999999999</v>
+        <v>2324.3191999999999</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -5140,12 +5140,14 @@
         <f>E46/5</f>
         <v>22.4</v>
       </c>
-      <c r="P46" s="5"/>
+      <c r="P46" s="5">
+        <v>500</v>
+      </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1">
         <f t="shared" ref="S46:S47" si="10">(F46+N46+P46)/O46</f>
-        <v>56.026785714285715</v>
+        <v>78.348214285714292</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" ref="T46:T47" si="11">(F46+N46)/O46</f>
